--- a/ProductDisplay.xlsx
+++ b/ProductDisplay.xlsx
@@ -113,10 +113,9 @@
     <t>Check the visibility of product name and description</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Goto home page or any categories
+    <t>1. Goto home page or any categories
 2. Click  a product
-3. Observe product name and description
-</t>
+3. Observe product name and description</t>
   </si>
   <si>
     <t>Product exists on database</t>
@@ -144,10 +143,9 @@
     <t>Check price visibility</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Goto home page or any categories
+    <t>1. Goto home page or any categories
 2. Click  a product
-3. Observe price
-</t>
+3. Observe price</t>
   </si>
   <si>
     <t>Price is displayed in correct 
@@ -160,10 +158,9 @@
     <t>Check Image rendering</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Goto home page or any categories
+    <t>1. Goto home page or any categories
 2. Click  a product
-4. Observe image
-</t>
+4. Observe image</t>
   </si>
   <si>
     <t>Image is rendered properly</t>
@@ -1387,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1584,7 +1581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="86.4" spans="1:14">
+    <row r="9" ht="72" spans="1:14">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="72" spans="3:14">
+    <row r="10" ht="57.6" spans="3:14">
       <c r="C10" t="s">
         <v>35</v>
       </c>
@@ -1662,7 +1659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" ht="72" spans="3:14">
+    <row r="11" ht="57.6" spans="3:14">
       <c r="C11" t="s">
         <v>39</v>
       </c>
